--- a/2023-05/202305/05_結合テスト/01-結合試験仕様書/倉庫管理結合試験仕様書.xlsx
+++ b/2023-05/202305/05_結合テスト/01-結合試験仕様書/倉庫管理結合試験仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\202305(review)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ami\Desktop\画面开发\上传 5月\2023-05\2023-05\202305\05_結合テスト\01-結合試験仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A6C7AE-1813-425D-A389-8AB07FF8299C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D643AD-D64B-444C-934B-52FA50595F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ケース " sheetId="45" r:id="rId1"/>
@@ -19,17 +19,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'ケース '!$A$1:$AF$33</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -123,31 +112,10 @@
     <t>在庫情報一覧画面</t>
   </si>
   <si>
-    <t>ログアウトボタン押下</t>
-  </si>
-  <si>
-    <t>追加ボタン押下</t>
-  </si>
-  <si>
     <t>○</t>
   </si>
   <si>
-    <t>削除ボタンを押下</t>
-  </si>
-  <si>
     <t>在庫情報登録画面</t>
-  </si>
-  <si>
-    <t>登録ボタン押下</t>
-  </si>
-  <si>
-    <t>更新ボタン押下</t>
-  </si>
-  <si>
-    <t>閉じるボタン押下</t>
-  </si>
-  <si>
-    <t>ログイン画面へ遷移すること。</t>
   </si>
   <si>
     <t>実施結果</t>
@@ -250,6 +218,34 @@
     <rPh sb="22" eb="24">
       <t>ハンエイ</t>
     </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ログアウトボタン押下</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ログイン画面へ遷移すること。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>追加ボタン押下</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>削除ボタンを押下</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>登録ボタン押下</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>更新ボタン押下</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>閉じるボタン押下</t>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -655,41 +651,47 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -727,52 +729,46 @@
     <xf numFmtId="14" fontId="9" fillId="4" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準_受入登録（詳細）2000バージョン" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -943,7 +939,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1265,113 +1261,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD237"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="107" zoomScaleNormal="107" zoomScaleSheetLayoutView="107" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="107" zoomScaleNormal="107" zoomScaleSheetLayoutView="107" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="9.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
-    <col min="2" max="8" width="2.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="2" customWidth="1"/>
-    <col min="10" max="11" width="2.625" style="1"/>
-    <col min="12" max="13" width="2.875" style="1" customWidth="1"/>
-    <col min="14" max="18" width="3.375" style="1" customWidth="1"/>
-    <col min="19" max="30" width="2.875" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="2.625" style="1"/>
+    <col min="1" max="1" width="2.36328125" style="1" customWidth="1"/>
+    <col min="2" max="8" width="2.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.6328125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="2.6328125" style="1"/>
+    <col min="12" max="13" width="2.90625" style="1" customWidth="1"/>
+    <col min="14" max="18" width="3.36328125" style="1" customWidth="1"/>
+    <col min="19" max="30" width="2.90625" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="2.6328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="26" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="27" t="s">
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="30" t="s">
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="31"/>
-      <c r="W1" s="32" t="s">
-        <v>33</v>
+      <c r="V1" s="47"/>
+      <c r="W1" s="34" t="s">
+        <v>26</v>
       </c>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="30" t="s">
+      <c r="X1" s="35"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="32" t="s">
-        <v>33</v>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="34" t="s">
+        <v>26</v>
       </c>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="34"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="36"/>
     </row>
     <row r="2" spans="1:30" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="35" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="36" t="s">
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="39" t="s">
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="40"/>
-      <c r="W2" s="41">
+      <c r="V2" s="42"/>
+      <c r="W2" s="43">
         <v>45075</v>
       </c>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="39" t="s">
+      <c r="X2" s="44"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="41">
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="43">
         <v>45075</v>
       </c>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="43"/>
-    </row>
-    <row r="3" spans="1:30" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="45"/>
+    </row>
+    <row r="3" spans="1:30" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
@@ -1403,25 +1399,25 @@
       <c r="AC3"/>
       <c r="AD3"/>
     </row>
-    <row r="4" spans="1:30" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="46"/>
+    <row r="4" spans="1:30" ht="26.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="31"/>
       <c r="S4" s="6">
         <v>1</v>
       </c>
@@ -1451,29 +1447,29 @@
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
     </row>
-    <row r="5" spans="1:30" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="47" t="s">
+    <row r="5" spans="1:30" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
@@ -1487,27 +1483,27 @@
       <c r="AC5" s="14"/>
       <c r="AD5" s="14"/>
     </row>
-    <row r="6" spans="1:30" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="47"/>
-      <c r="B6" s="49" t="s">
+    <row r="6" spans="1:30" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="32"/>
+      <c r="B6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
       <c r="S6" s="14" t="s">
         <v>12</v>
       </c>
@@ -1523,8 +1519,8 @@
       <c r="AC6" s="14"/>
       <c r="AD6" s="14"/>
     </row>
-    <row r="7" spans="1:30" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="47"/>
+    <row r="7" spans="1:30" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="32"/>
       <c r="B7" s="10" t="s">
         <v>13</v>
       </c>
@@ -1559,8 +1555,8 @@
       <c r="AC7" s="14"/>
       <c r="AD7" s="14"/>
     </row>
-    <row r="8" spans="1:30" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="47"/>
+    <row r="8" spans="1:30" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="32"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -1591,27 +1587,27 @@
       <c r="AC8" s="14"/>
       <c r="AD8" s="14"/>
     </row>
-    <row r="9" spans="1:30" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48" t="s">
+    <row r="9" spans="1:30" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="32"/>
+      <c r="B9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="51"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="23"/>
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
@@ -1625,27 +1621,27 @@
       <c r="AC9" s="14"/>
       <c r="AD9" s="14"/>
     </row>
-    <row r="10" spans="1:30" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="47"/>
-      <c r="B10" s="49" t="s">
-        <v>15</v>
+    <row r="10" spans="1:30" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="32"/>
+      <c r="B10" s="33" t="s">
+        <v>30</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
       <c r="S10" s="14"/>
       <c r="T10" s="14" t="s">
         <v>12</v>
@@ -1661,31 +1657,31 @@
       <c r="AC10" s="14"/>
       <c r="AD10" s="14"/>
     </row>
-    <row r="11" spans="1:30" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="47"/>
-      <c r="B11" s="49" t="s">
-        <v>16</v>
+    <row r="11" spans="1:30" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="32"/>
+      <c r="B11" s="33" t="s">
+        <v>32</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
       <c r="U11" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V11" s="14"/>
       <c r="W11" s="14"/>
@@ -1697,32 +1693,32 @@
       <c r="AC11" s="14"/>
       <c r="AD11" s="14"/>
     </row>
-    <row r="12" spans="1:30" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="47"/>
-      <c r="B12" s="49" t="s">
-        <v>18</v>
+    <row r="12" spans="1:30" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="32"/>
+      <c r="B12" s="33" t="s">
+        <v>33</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
       <c r="U12" s="14"/>
       <c r="V12" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W12" s="14"/>
       <c r="X12" s="14"/>
@@ -1733,10 +1729,10 @@
       <c r="AC12" s="14"/>
       <c r="AD12" s="14"/>
     </row>
-    <row r="13" spans="1:30" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:30" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="32"/>
       <c r="B13" s="15" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -1759,7 +1755,7 @@
       <c r="U13" s="14"/>
       <c r="V13" s="14"/>
       <c r="W13" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="X13" s="14"/>
       <c r="Y13" s="14"/>
@@ -1769,8 +1765,8 @@
       <c r="AC13" s="14"/>
       <c r="AD13" s="14"/>
     </row>
-    <row r="14" spans="1:30" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="47"/>
+    <row r="14" spans="1:30" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="32"/>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -1801,27 +1797,27 @@
       <c r="AC14" s="14"/>
       <c r="AD14" s="14"/>
     </row>
-    <row r="15" spans="1:30" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48" t="s">
-        <v>19</v>
+    <row r="15" spans="1:30" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="32"/>
+      <c r="B15" s="21" t="s">
+        <v>16</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="51"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="23"/>
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
       <c r="U15" s="14"/>
@@ -1835,34 +1831,34 @@
       <c r="AC15" s="14"/>
       <c r="AD15" s="14"/>
     </row>
-    <row r="16" spans="1:30" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="47"/>
-      <c r="B16" s="49" t="s">
-        <v>20</v>
+    <row r="16" spans="1:30" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="32"/>
+      <c r="B16" s="33" t="s">
+        <v>34</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
       <c r="U16" s="14"/>
       <c r="V16" s="14"/>
       <c r="W16" s="14"/>
       <c r="X16" s="14" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="Y16" s="14"/>
       <c r="Z16" s="14"/>
@@ -1871,27 +1867,27 @@
       <c r="AC16" s="14"/>
       <c r="AD16" s="14"/>
     </row>
-    <row r="17" spans="1:30" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="47"/>
-      <c r="B17" s="49" t="s">
-        <v>21</v>
+    <row r="17" spans="1:30" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="32"/>
+      <c r="B17" s="33" t="s">
+        <v>35</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
       <c r="U17" s="14"/>
@@ -1899,7 +1895,7 @@
       <c r="W17" s="14"/>
       <c r="X17" s="14"/>
       <c r="Y17" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z17" s="14"/>
       <c r="AA17" s="14"/>
@@ -1907,27 +1903,27 @@
       <c r="AC17" s="14"/>
       <c r="AD17" s="14"/>
     </row>
-    <row r="18" spans="1:30" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="47"/>
-      <c r="B18" s="49" t="s">
-        <v>22</v>
+    <row r="18" spans="1:30" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="32"/>
+      <c r="B18" s="33" t="s">
+        <v>36</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
@@ -1936,32 +1932,32 @@
       <c r="X18" s="14"/>
       <c r="Y18" s="14"/>
       <c r="Z18" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA18" s="14"/>
       <c r="AB18" s="14"/>
       <c r="AC18" s="14"/>
       <c r="AD18" s="14"/>
     </row>
-    <row r="19" spans="1:30" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="47"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="51"/>
+    <row r="19" spans="1:30" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="32"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="23"/>
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
       <c r="U19" s="14"/>
@@ -1975,54 +1971,54 @@
       <c r="AC19" s="14"/>
       <c r="AD19" s="14"/>
     </row>
-    <row r="20" spans="1:30" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="56"/>
-      <c r="B20" s="48" t="s">
-        <v>35</v>
+    <row r="20" spans="1:30" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
+      <c r="B20" s="21" t="s">
+        <v>28</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="51"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="23"/>
       <c r="S20" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
       <c r="V20" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="W20" s="14"/>
       <c r="X20" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y20" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z20" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
       <c r="AD20" s="7"/>
     </row>
-    <row r="21" spans="1:30" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="56"/>
+    <row r="21" spans="1:30" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27"/>
       <c r="B21" s="17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -2046,10 +2042,10 @@
       <c r="V21" s="7"/>
       <c r="W21" s="14"/>
       <c r="X21" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="Y21" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
@@ -2057,25 +2053,25 @@
       <c r="AC21" s="7"/>
       <c r="AD21" s="7"/>
     </row>
-    <row r="22" spans="1:30" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="56"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="51"/>
+    <row r="22" spans="1:30" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="23"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
@@ -2089,35 +2085,35 @@
       <c r="AC22" s="7"/>
       <c r="AD22" s="7"/>
     </row>
-    <row r="23" spans="1:30" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="56"/>
-      <c r="B23" s="48" t="s">
-        <v>34</v>
+    <row r="23" spans="1:30" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="27"/>
+      <c r="B23" s="21" t="s">
+        <v>27</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="51"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="23"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V23" s="7"/>
       <c r="W23" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
@@ -2127,33 +2123,33 @@
       <c r="AC23" s="7"/>
       <c r="AD23" s="7"/>
     </row>
-    <row r="24" spans="1:30" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="56"/>
-      <c r="B24" s="48" t="s">
-        <v>32</v>
+    <row r="24" spans="1:30" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="27"/>
+      <c r="B24" s="21" t="s">
+        <v>25</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="51"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="23"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
       <c r="W24" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
@@ -2163,25 +2159,25 @@
       <c r="AC24" s="7"/>
       <c r="AD24" s="7"/>
     </row>
-    <row r="25" spans="1:30" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="56"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="51"/>
+    <row r="25" spans="1:30" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="27"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="23"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
@@ -2195,27 +2191,27 @@
       <c r="AC25" s="7"/>
       <c r="AD25" s="7"/>
     </row>
-    <row r="26" spans="1:30" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="56"/>
-      <c r="B26" s="48" t="s">
-        <v>23</v>
+    <row r="26" spans="1:30" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="27"/>
+      <c r="B26" s="21" t="s">
+        <v>31</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="51"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="23"/>
       <c r="S26" s="7"/>
       <c r="T26" s="14" t="s">
         <v>12</v>
@@ -2231,25 +2227,25 @@
       <c r="AC26" s="7"/>
       <c r="AD26" s="7"/>
     </row>
-    <row r="27" spans="1:30" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="56"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="51"/>
+    <row r="27" spans="1:30" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="27"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="23"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
@@ -2263,25 +2259,25 @@
       <c r="AC27" s="7"/>
       <c r="AD27" s="7"/>
     </row>
-    <row r="28" spans="1:30" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="57"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="51"/>
+    <row r="28" spans="1:30" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="28"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="23"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
@@ -2295,27 +2291,27 @@
       <c r="AC28" s="7"/>
       <c r="AD28" s="7"/>
     </row>
-    <row r="29" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="52" t="s">
-        <v>24</v>
+    <row r="29" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
+        <v>17</v>
       </c>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
       <c r="S29" s="8"/>
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
@@ -2329,27 +2325,27 @@
       <c r="AC29" s="8"/>
       <c r="AD29" s="8"/>
     </row>
-    <row r="30" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="52" t="s">
-        <v>25</v>
+    <row r="30" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="s">
+        <v>18</v>
       </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
@@ -2363,27 +2359,27 @@
       <c r="AC30" s="7"/>
       <c r="AD30" s="7"/>
     </row>
-    <row r="31" spans="1:30" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="53" t="s">
-        <v>26</v>
+    <row r="31" spans="1:30" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="24" t="s">
+        <v>19</v>
       </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="55"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="26"/>
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
@@ -2397,27 +2393,27 @@
       <c r="AC31" s="9"/>
       <c r="AD31" s="9"/>
     </row>
-    <row r="32" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="52" t="s">
-        <v>27</v>
+    <row r="32" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="20" t="s">
+        <v>20</v>
       </c>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
@@ -2431,27 +2427,27 @@
       <c r="AC32" s="7"/>
       <c r="AD32" s="7"/>
     </row>
-    <row r="33" spans="1:30" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="52" t="s">
-        <v>28</v>
+    <row r="33" spans="1:30" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="20" t="s">
+        <v>21</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="52"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
@@ -2465,7 +2461,7 @@
       <c r="AC33" s="9"/>
       <c r="AD33" s="9"/>
     </row>
-    <row r="34" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -2497,7 +2493,7 @@
       <c r="AC34"/>
       <c r="AD34"/>
     </row>
-    <row r="35" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -2529,7 +2525,7 @@
       <c r="AC35"/>
       <c r="AD35"/>
     </row>
-    <row r="36" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -2561,7 +2557,7 @@
       <c r="AC36"/>
       <c r="AD36"/>
     </row>
-    <row r="37" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -2593,7 +2589,7 @@
       <c r="AC37"/>
       <c r="AD37"/>
     </row>
-    <row r="38" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -2625,7 +2621,7 @@
       <c r="AC38"/>
       <c r="AD38"/>
     </row>
-    <row r="39" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -2657,7 +2653,7 @@
       <c r="AC39"/>
       <c r="AD39"/>
     </row>
-    <row r="40" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -2689,7 +2685,7 @@
       <c r="AC40"/>
       <c r="AD40"/>
     </row>
-    <row r="41" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -2721,7 +2717,7 @@
       <c r="AC41"/>
       <c r="AD41"/>
     </row>
-    <row r="42" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -2753,7 +2749,7 @@
       <c r="AC42"/>
       <c r="AD42"/>
     </row>
-    <row r="43" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -2785,7 +2781,7 @@
       <c r="AC43"/>
       <c r="AD43"/>
     </row>
-    <row r="44" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -2817,7 +2813,7 @@
       <c r="AC44"/>
       <c r="AD44"/>
     </row>
-    <row r="45" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -2849,7 +2845,7 @@
       <c r="AC45"/>
       <c r="AD45"/>
     </row>
-    <row r="46" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -2881,7 +2877,7 @@
       <c r="AC46"/>
       <c r="AD46"/>
     </row>
-    <row r="47" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -2913,7 +2909,7 @@
       <c r="AC47"/>
       <c r="AD47"/>
     </row>
-    <row r="48" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -2945,7 +2941,7 @@
       <c r="AC48"/>
       <c r="AD48"/>
     </row>
-    <row r="49" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -2977,7 +2973,7 @@
       <c r="AC49"/>
       <c r="AD49"/>
     </row>
-    <row r="50" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -3009,7 +3005,7 @@
       <c r="AC50"/>
       <c r="AD50"/>
     </row>
-    <row r="51" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -3041,7 +3037,7 @@
       <c r="AC51"/>
       <c r="AD51"/>
     </row>
-    <row r="52" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -3073,7 +3069,7 @@
       <c r="AC52"/>
       <c r="AD52"/>
     </row>
-    <row r="53" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -3105,7 +3101,7 @@
       <c r="AC53"/>
       <c r="AD53"/>
     </row>
-    <row r="54" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -3137,7 +3133,7 @@
       <c r="AC54"/>
       <c r="AD54"/>
     </row>
-    <row r="55" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -3169,7 +3165,7 @@
       <c r="AC55"/>
       <c r="AD55"/>
     </row>
-    <row r="56" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -3201,7 +3197,7 @@
       <c r="AC56"/>
       <c r="AD56"/>
     </row>
-    <row r="57" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
@@ -3233,7 +3229,7 @@
       <c r="AC57"/>
       <c r="AD57"/>
     </row>
-    <row r="58" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -3265,7 +3261,7 @@
       <c r="AC58"/>
       <c r="AD58"/>
     </row>
-    <row r="59" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -3297,7 +3293,7 @@
       <c r="AC59"/>
       <c r="AD59"/>
     </row>
-    <row r="60" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -3329,7 +3325,7 @@
       <c r="AC60"/>
       <c r="AD60"/>
     </row>
-    <row r="61" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -3361,7 +3357,7 @@
       <c r="AC61"/>
       <c r="AD61"/>
     </row>
-    <row r="62" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
@@ -3393,7 +3389,7 @@
       <c r="AC62"/>
       <c r="AD62"/>
     </row>
-    <row r="63" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
@@ -3425,7 +3421,7 @@
       <c r="AC63"/>
       <c r="AD63"/>
     </row>
-    <row r="64" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -3457,7 +3453,7 @@
       <c r="AC64"/>
       <c r="AD64"/>
     </row>
-    <row r="65" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -3489,7 +3485,7 @@
       <c r="AC65"/>
       <c r="AD65"/>
     </row>
-    <row r="66" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -3521,7 +3517,7 @@
       <c r="AC66"/>
       <c r="AD66"/>
     </row>
-    <row r="67" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
@@ -3553,7 +3549,7 @@
       <c r="AC67"/>
       <c r="AD67"/>
     </row>
-    <row r="68" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -3585,7 +3581,7 @@
       <c r="AC68"/>
       <c r="AD68"/>
     </row>
-    <row r="69" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -3617,7 +3613,7 @@
       <c r="AC69"/>
       <c r="AD69"/>
     </row>
-    <row r="70" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
@@ -3649,7 +3645,7 @@
       <c r="AC70"/>
       <c r="AD70"/>
     </row>
-    <row r="71" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -3681,7 +3677,7 @@
       <c r="AC71"/>
       <c r="AD71"/>
     </row>
-    <row r="72" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
@@ -3713,7 +3709,7 @@
       <c r="AC72"/>
       <c r="AD72"/>
     </row>
-    <row r="73" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -3745,7 +3741,7 @@
       <c r="AC73"/>
       <c r="AD73"/>
     </row>
-    <row r="74" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -3777,7 +3773,7 @@
       <c r="AC74"/>
       <c r="AD74"/>
     </row>
-    <row r="75" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -3809,7 +3805,7 @@
       <c r="AC75"/>
       <c r="AD75"/>
     </row>
-    <row r="76" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -3841,7 +3837,7 @@
       <c r="AC76"/>
       <c r="AD76"/>
     </row>
-    <row r="77" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -3873,7 +3869,7 @@
       <c r="AC77"/>
       <c r="AD77"/>
     </row>
-    <row r="78" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -3905,7 +3901,7 @@
       <c r="AC78"/>
       <c r="AD78"/>
     </row>
-    <row r="79" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -3937,7 +3933,7 @@
       <c r="AC79"/>
       <c r="AD79"/>
     </row>
-    <row r="80" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -3969,7 +3965,7 @@
       <c r="AC80"/>
       <c r="AD80"/>
     </row>
-    <row r="81" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -4001,7 +3997,7 @@
       <c r="AC81"/>
       <c r="AD81"/>
     </row>
-    <row r="82" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -4033,7 +4029,7 @@
       <c r="AC82"/>
       <c r="AD82"/>
     </row>
-    <row r="83" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -4065,7 +4061,7 @@
       <c r="AC83"/>
       <c r="AD83"/>
     </row>
-    <row r="84" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -4097,7 +4093,7 @@
       <c r="AC84"/>
       <c r="AD84"/>
     </row>
-    <row r="85" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -4129,7 +4125,7 @@
       <c r="AC85"/>
       <c r="AD85"/>
     </row>
-    <row r="86" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -4161,7 +4157,7 @@
       <c r="AC86"/>
       <c r="AD86"/>
     </row>
-    <row r="87" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -4193,7 +4189,7 @@
       <c r="AC87"/>
       <c r="AD87"/>
     </row>
-    <row r="88" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
@@ -4225,7 +4221,7 @@
       <c r="AC88"/>
       <c r="AD88"/>
     </row>
-    <row r="89" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
@@ -4257,7 +4253,7 @@
       <c r="AC89"/>
       <c r="AD89"/>
     </row>
-    <row r="90" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -4289,7 +4285,7 @@
       <c r="AC90"/>
       <c r="AD90"/>
     </row>
-    <row r="91" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -4321,7 +4317,7 @@
       <c r="AC91"/>
       <c r="AD91"/>
     </row>
-    <row r="92" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -4353,7 +4349,7 @@
       <c r="AC92"/>
       <c r="AD92"/>
     </row>
-    <row r="93" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -4385,7 +4381,7 @@
       <c r="AC93"/>
       <c r="AD93"/>
     </row>
-    <row r="94" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -4417,7 +4413,7 @@
       <c r="AC94"/>
       <c r="AD94"/>
     </row>
-    <row r="95" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -4449,7 +4445,7 @@
       <c r="AC95"/>
       <c r="AD95"/>
     </row>
-    <row r="96" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -4481,7 +4477,7 @@
       <c r="AC96"/>
       <c r="AD96"/>
     </row>
-    <row r="97" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
@@ -4513,7 +4509,7 @@
       <c r="AC97"/>
       <c r="AD97"/>
     </row>
-    <row r="98" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
@@ -4545,7 +4541,7 @@
       <c r="AC98"/>
       <c r="AD98"/>
     </row>
-    <row r="99" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
@@ -4577,7 +4573,7 @@
       <c r="AC99"/>
       <c r="AD99"/>
     </row>
-    <row r="100" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
@@ -4609,7 +4605,7 @@
       <c r="AC100"/>
       <c r="AD100"/>
     </row>
-    <row r="101" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -4641,7 +4637,7 @@
       <c r="AC101"/>
       <c r="AD101"/>
     </row>
-    <row r="102" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -4673,7 +4669,7 @@
       <c r="AC102"/>
       <c r="AD102"/>
     </row>
-    <row r="103" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
@@ -4705,7 +4701,7 @@
       <c r="AC103"/>
       <c r="AD103"/>
     </row>
-    <row r="104" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -4737,7 +4733,7 @@
       <c r="AC104"/>
       <c r="AD104"/>
     </row>
-    <row r="105" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -4769,7 +4765,7 @@
       <c r="AC105"/>
       <c r="AD105"/>
     </row>
-    <row r="106" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -4801,7 +4797,7 @@
       <c r="AC106"/>
       <c r="AD106"/>
     </row>
-    <row r="107" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -4833,7 +4829,7 @@
       <c r="AC107"/>
       <c r="AD107"/>
     </row>
-    <row r="108" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -4865,7 +4861,7 @@
       <c r="AC108"/>
       <c r="AD108"/>
     </row>
-    <row r="109" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -4897,7 +4893,7 @@
       <c r="AC109"/>
       <c r="AD109"/>
     </row>
-    <row r="110" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -4929,7 +4925,7 @@
       <c r="AC110"/>
       <c r="AD110"/>
     </row>
-    <row r="111" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -4961,7 +4957,7 @@
       <c r="AC111"/>
       <c r="AD111"/>
     </row>
-    <row r="112" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -4993,7 +4989,7 @@
       <c r="AC112"/>
       <c r="AD112"/>
     </row>
-    <row r="113" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -5025,7 +5021,7 @@
       <c r="AC113"/>
       <c r="AD113"/>
     </row>
-    <row r="114" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -5057,7 +5053,7 @@
       <c r="AC114"/>
       <c r="AD114"/>
     </row>
-    <row r="115" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -5089,7 +5085,7 @@
       <c r="AC115"/>
       <c r="AD115"/>
     </row>
-    <row r="116" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -5121,7 +5117,7 @@
       <c r="AC116"/>
       <c r="AD116"/>
     </row>
-    <row r="117" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -5153,7 +5149,7 @@
       <c r="AC117"/>
       <c r="AD117"/>
     </row>
-    <row r="118" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -5185,7 +5181,7 @@
       <c r="AC118"/>
       <c r="AD118"/>
     </row>
-    <row r="119" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -5217,7 +5213,7 @@
       <c r="AC119"/>
       <c r="AD119"/>
     </row>
-    <row r="120" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -5249,7 +5245,7 @@
       <c r="AC120"/>
       <c r="AD120"/>
     </row>
-    <row r="121" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -5281,7 +5277,7 @@
       <c r="AC121"/>
       <c r="AD121"/>
     </row>
-    <row r="122" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -5313,7 +5309,7 @@
       <c r="AC122"/>
       <c r="AD122"/>
     </row>
-    <row r="123" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -5345,7 +5341,7 @@
       <c r="AC123"/>
       <c r="AD123"/>
     </row>
-    <row r="124" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -5377,7 +5373,7 @@
       <c r="AC124"/>
       <c r="AD124"/>
     </row>
-    <row r="125" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -5409,7 +5405,7 @@
       <c r="AC125"/>
       <c r="AD125"/>
     </row>
-    <row r="126" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -5441,7 +5437,7 @@
       <c r="AC126"/>
       <c r="AD126"/>
     </row>
-    <row r="127" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -5473,7 +5469,7 @@
       <c r="AC127"/>
       <c r="AD127"/>
     </row>
-    <row r="128" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -5505,7 +5501,7 @@
       <c r="AC128"/>
       <c r="AD128"/>
     </row>
-    <row r="129" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -5537,7 +5533,7 @@
       <c r="AC129"/>
       <c r="AD129"/>
     </row>
-    <row r="130" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -5569,7 +5565,7 @@
       <c r="AC130"/>
       <c r="AD130"/>
     </row>
-    <row r="131" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -5601,7 +5597,7 @@
       <c r="AC131"/>
       <c r="AD131"/>
     </row>
-    <row r="132" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -5633,7 +5629,7 @@
       <c r="AC132"/>
       <c r="AD132"/>
     </row>
-    <row r="133" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -5665,7 +5661,7 @@
       <c r="AC133"/>
       <c r="AD133"/>
     </row>
-    <row r="134" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -5697,7 +5693,7 @@
       <c r="AC134"/>
       <c r="AD134"/>
     </row>
-    <row r="135" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -5729,7 +5725,7 @@
       <c r="AC135"/>
       <c r="AD135"/>
     </row>
-    <row r="136" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -5761,7 +5757,7 @@
       <c r="AC136"/>
       <c r="AD136"/>
     </row>
-    <row r="137" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -5793,7 +5789,7 @@
       <c r="AC137"/>
       <c r="AD137"/>
     </row>
-    <row r="138" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -5825,7 +5821,7 @@
       <c r="AC138"/>
       <c r="AD138"/>
     </row>
-    <row r="139" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -5857,7 +5853,7 @@
       <c r="AC139"/>
       <c r="AD139"/>
     </row>
-    <row r="140" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
@@ -5889,7 +5885,7 @@
       <c r="AC140"/>
       <c r="AD140"/>
     </row>
-    <row r="141" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -5921,7 +5917,7 @@
       <c r="AC141"/>
       <c r="AD141"/>
     </row>
-    <row r="142" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
@@ -5953,7 +5949,7 @@
       <c r="AC142"/>
       <c r="AD142"/>
     </row>
-    <row r="143" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A143"/>
       <c r="B143"/>
       <c r="C143"/>
@@ -5985,7 +5981,7 @@
       <c r="AC143"/>
       <c r="AD143"/>
     </row>
-    <row r="144" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A144"/>
       <c r="B144"/>
       <c r="C144"/>
@@ -6017,7 +6013,7 @@
       <c r="AC144"/>
       <c r="AD144"/>
     </row>
-    <row r="145" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A145"/>
       <c r="B145"/>
       <c r="C145"/>
@@ -6049,7 +6045,7 @@
       <c r="AC145"/>
       <c r="AD145"/>
     </row>
-    <row r="146" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A146"/>
       <c r="B146"/>
       <c r="C146"/>
@@ -6081,7 +6077,7 @@
       <c r="AC146"/>
       <c r="AD146"/>
     </row>
-    <row r="147" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A147"/>
       <c r="B147"/>
       <c r="C147"/>
@@ -6113,7 +6109,7 @@
       <c r="AC147"/>
       <c r="AD147"/>
     </row>
-    <row r="148" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148"/>
       <c r="C148"/>
@@ -6145,7 +6141,7 @@
       <c r="AC148"/>
       <c r="AD148"/>
     </row>
-    <row r="149" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A149"/>
       <c r="B149"/>
       <c r="C149"/>
@@ -6177,7 +6173,7 @@
       <c r="AC149"/>
       <c r="AD149"/>
     </row>
-    <row r="150" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A150"/>
       <c r="B150"/>
       <c r="C150"/>
@@ -6209,7 +6205,7 @@
       <c r="AC150"/>
       <c r="AD150"/>
     </row>
-    <row r="151" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A151"/>
       <c r="B151"/>
       <c r="C151"/>
@@ -6241,7 +6237,7 @@
       <c r="AC151"/>
       <c r="AD151"/>
     </row>
-    <row r="152" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A152"/>
       <c r="B152"/>
       <c r="C152"/>
@@ -6273,7 +6269,7 @@
       <c r="AC152"/>
       <c r="AD152"/>
     </row>
-    <row r="153" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A153"/>
       <c r="B153"/>
       <c r="C153"/>
@@ -6305,7 +6301,7 @@
       <c r="AC153"/>
       <c r="AD153"/>
     </row>
-    <row r="154" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A154"/>
       <c r="B154"/>
       <c r="C154"/>
@@ -6337,7 +6333,7 @@
       <c r="AC154"/>
       <c r="AD154"/>
     </row>
-    <row r="155" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A155"/>
       <c r="B155"/>
       <c r="C155"/>
@@ -6369,7 +6365,7 @@
       <c r="AC155"/>
       <c r="AD155"/>
     </row>
-    <row r="156" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A156"/>
       <c r="B156"/>
       <c r="C156"/>
@@ -6401,7 +6397,7 @@
       <c r="AC156"/>
       <c r="AD156"/>
     </row>
-    <row r="157" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A157"/>
       <c r="B157"/>
       <c r="C157"/>
@@ -6433,7 +6429,7 @@
       <c r="AC157"/>
       <c r="AD157"/>
     </row>
-    <row r="158" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A158"/>
       <c r="B158"/>
       <c r="C158"/>
@@ -6465,7 +6461,7 @@
       <c r="AC158"/>
       <c r="AD158"/>
     </row>
-    <row r="159" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A159"/>
       <c r="B159"/>
       <c r="C159"/>
@@ -6497,7 +6493,7 @@
       <c r="AC159"/>
       <c r="AD159"/>
     </row>
-    <row r="160" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A160"/>
       <c r="B160"/>
       <c r="C160"/>
@@ -6529,7 +6525,7 @@
       <c r="AC160"/>
       <c r="AD160"/>
     </row>
-    <row r="161" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A161"/>
       <c r="B161"/>
       <c r="C161"/>
@@ -6561,7 +6557,7 @@
       <c r="AC161"/>
       <c r="AD161"/>
     </row>
-    <row r="162" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A162"/>
       <c r="B162"/>
       <c r="C162"/>
@@ -6593,7 +6589,7 @@
       <c r="AC162"/>
       <c r="AD162"/>
     </row>
-    <row r="163" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A163"/>
       <c r="B163"/>
       <c r="C163"/>
@@ -6625,7 +6621,7 @@
       <c r="AC163"/>
       <c r="AD163"/>
     </row>
-    <row r="164" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A164"/>
       <c r="B164"/>
       <c r="C164"/>
@@ -6657,7 +6653,7 @@
       <c r="AC164"/>
       <c r="AD164"/>
     </row>
-    <row r="165" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
@@ -6689,7 +6685,7 @@
       <c r="AC165"/>
       <c r="AD165"/>
     </row>
-    <row r="166" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
@@ -6721,7 +6717,7 @@
       <c r="AC166"/>
       <c r="AD166"/>
     </row>
-    <row r="167" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A167"/>
       <c r="B167"/>
       <c r="C167"/>
@@ -6753,7 +6749,7 @@
       <c r="AC167"/>
       <c r="AD167"/>
     </row>
-    <row r="168" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
@@ -6785,7 +6781,7 @@
       <c r="AC168"/>
       <c r="AD168"/>
     </row>
-    <row r="169" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A169"/>
       <c r="B169"/>
       <c r="C169"/>
@@ -6817,7 +6813,7 @@
       <c r="AC169"/>
       <c r="AD169"/>
     </row>
-    <row r="170" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A170"/>
       <c r="B170"/>
       <c r="C170"/>
@@ -6849,7 +6845,7 @@
       <c r="AC170"/>
       <c r="AD170"/>
     </row>
-    <row r="171" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A171"/>
       <c r="B171"/>
       <c r="C171"/>
@@ -6881,7 +6877,7 @@
       <c r="AC171"/>
       <c r="AD171"/>
     </row>
-    <row r="172" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A172"/>
       <c r="B172"/>
       <c r="C172"/>
@@ -6913,7 +6909,7 @@
       <c r="AC172"/>
       <c r="AD172"/>
     </row>
-    <row r="173" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A173"/>
       <c r="B173"/>
       <c r="C173"/>
@@ -6945,7 +6941,7 @@
       <c r="AC173"/>
       <c r="AD173"/>
     </row>
-    <row r="174" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A174"/>
       <c r="B174"/>
       <c r="C174"/>
@@ -6977,7 +6973,7 @@
       <c r="AC174"/>
       <c r="AD174"/>
     </row>
-    <row r="175" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A175"/>
       <c r="B175"/>
       <c r="C175"/>
@@ -7009,7 +7005,7 @@
       <c r="AC175"/>
       <c r="AD175"/>
     </row>
-    <row r="176" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A176"/>
       <c r="B176"/>
       <c r="C176"/>
@@ -7041,7 +7037,7 @@
       <c r="AC176"/>
       <c r="AD176"/>
     </row>
-    <row r="177" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A177"/>
       <c r="B177"/>
       <c r="C177"/>
@@ -7073,7 +7069,7 @@
       <c r="AC177"/>
       <c r="AD177"/>
     </row>
-    <row r="178" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A178"/>
       <c r="B178"/>
       <c r="C178"/>
@@ -7105,7 +7101,7 @@
       <c r="AC178"/>
       <c r="AD178"/>
     </row>
-    <row r="179" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A179"/>
       <c r="B179"/>
       <c r="C179"/>
@@ -7137,7 +7133,7 @@
       <c r="AC179"/>
       <c r="AD179"/>
     </row>
-    <row r="180" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A180"/>
       <c r="B180"/>
       <c r="C180"/>
@@ -7169,7 +7165,7 @@
       <c r="AC180"/>
       <c r="AD180"/>
     </row>
-    <row r="181" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A181"/>
       <c r="B181"/>
       <c r="C181"/>
@@ -7201,7 +7197,7 @@
       <c r="AC181"/>
       <c r="AD181"/>
     </row>
-    <row r="182" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A182"/>
       <c r="B182"/>
       <c r="C182"/>
@@ -7233,7 +7229,7 @@
       <c r="AC182"/>
       <c r="AD182"/>
     </row>
-    <row r="183" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A183"/>
       <c r="B183"/>
       <c r="C183"/>
@@ -7265,7 +7261,7 @@
       <c r="AC183"/>
       <c r="AD183"/>
     </row>
-    <row r="184" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A184"/>
       <c r="B184"/>
       <c r="C184"/>
@@ -7297,7 +7293,7 @@
       <c r="AC184"/>
       <c r="AD184"/>
     </row>
-    <row r="185" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A185"/>
       <c r="B185"/>
       <c r="C185"/>
@@ -7329,7 +7325,7 @@
       <c r="AC185"/>
       <c r="AD185"/>
     </row>
-    <row r="186" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A186"/>
       <c r="B186"/>
       <c r="C186"/>
@@ -7361,7 +7357,7 @@
       <c r="AC186"/>
       <c r="AD186"/>
     </row>
-    <row r="187" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A187"/>
       <c r="B187"/>
       <c r="C187"/>
@@ -7393,7 +7389,7 @@
       <c r="AC187"/>
       <c r="AD187"/>
     </row>
-    <row r="188" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A188"/>
       <c r="B188"/>
       <c r="C188"/>
@@ -7425,7 +7421,7 @@
       <c r="AC188"/>
       <c r="AD188"/>
     </row>
-    <row r="189" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A189"/>
       <c r="B189"/>
       <c r="C189"/>
@@ -7457,7 +7453,7 @@
       <c r="AC189"/>
       <c r="AD189"/>
     </row>
-    <row r="190" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A190"/>
       <c r="B190"/>
       <c r="C190"/>
@@ -7489,7 +7485,7 @@
       <c r="AC190"/>
       <c r="AD190"/>
     </row>
-    <row r="191" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A191"/>
       <c r="B191"/>
       <c r="C191"/>
@@ -7521,7 +7517,7 @@
       <c r="AC191"/>
       <c r="AD191"/>
     </row>
-    <row r="192" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A192"/>
       <c r="B192"/>
       <c r="C192"/>
@@ -7553,7 +7549,7 @@
       <c r="AC192"/>
       <c r="AD192"/>
     </row>
-    <row r="193" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A193"/>
       <c r="B193"/>
       <c r="C193"/>
@@ -7585,7 +7581,7 @@
       <c r="AC193"/>
       <c r="AD193"/>
     </row>
-    <row r="194" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A194"/>
       <c r="B194"/>
       <c r="C194"/>
@@ -7617,7 +7613,7 @@
       <c r="AC194"/>
       <c r="AD194"/>
     </row>
-    <row r="195" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A195"/>
       <c r="B195"/>
       <c r="C195"/>
@@ -7649,7 +7645,7 @@
       <c r="AC195"/>
       <c r="AD195"/>
     </row>
-    <row r="196" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A196"/>
       <c r="B196"/>
       <c r="C196"/>
@@ -7681,7 +7677,7 @@
       <c r="AC196"/>
       <c r="AD196"/>
     </row>
-    <row r="197" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A197"/>
       <c r="B197"/>
       <c r="C197"/>
@@ -7713,7 +7709,7 @@
       <c r="AC197"/>
       <c r="AD197"/>
     </row>
-    <row r="198" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A198"/>
       <c r="B198"/>
       <c r="C198"/>
@@ -7745,7 +7741,7 @@
       <c r="AC198"/>
       <c r="AD198"/>
     </row>
-    <row r="199" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A199"/>
       <c r="B199"/>
       <c r="C199"/>
@@ -7777,7 +7773,7 @@
       <c r="AC199"/>
       <c r="AD199"/>
     </row>
-    <row r="200" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A200"/>
       <c r="B200"/>
       <c r="C200"/>
@@ -7809,7 +7805,7 @@
       <c r="AC200"/>
       <c r="AD200"/>
     </row>
-    <row r="201" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A201"/>
       <c r="B201"/>
       <c r="C201"/>
@@ -7841,7 +7837,7 @@
       <c r="AC201"/>
       <c r="AD201"/>
     </row>
-    <row r="202" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A202"/>
       <c r="B202"/>
       <c r="C202"/>
@@ -7873,7 +7869,7 @@
       <c r="AC202"/>
       <c r="AD202"/>
     </row>
-    <row r="203" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A203"/>
       <c r="B203"/>
       <c r="C203"/>
@@ -7905,7 +7901,7 @@
       <c r="AC203"/>
       <c r="AD203"/>
     </row>
-    <row r="204" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A204"/>
       <c r="B204"/>
       <c r="C204"/>
@@ -7937,7 +7933,7 @@
       <c r="AC204"/>
       <c r="AD204"/>
     </row>
-    <row r="205" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A205"/>
       <c r="B205"/>
       <c r="C205"/>
@@ -7969,7 +7965,7 @@
       <c r="AC205"/>
       <c r="AD205"/>
     </row>
-    <row r="206" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A206"/>
       <c r="B206"/>
       <c r="C206"/>
@@ -8001,7 +7997,7 @@
       <c r="AC206"/>
       <c r="AD206"/>
     </row>
-    <row r="207" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A207"/>
       <c r="B207"/>
       <c r="C207"/>
@@ -8033,7 +8029,7 @@
       <c r="AC207"/>
       <c r="AD207"/>
     </row>
-    <row r="208" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A208"/>
       <c r="B208"/>
       <c r="C208"/>
@@ -8065,7 +8061,7 @@
       <c r="AC208"/>
       <c r="AD208"/>
     </row>
-    <row r="209" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A209"/>
       <c r="B209"/>
       <c r="C209"/>
@@ -8097,7 +8093,7 @@
       <c r="AC209"/>
       <c r="AD209"/>
     </row>
-    <row r="210" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A210"/>
       <c r="B210"/>
       <c r="C210"/>
@@ -8129,7 +8125,7 @@
       <c r="AC210"/>
       <c r="AD210"/>
     </row>
-    <row r="211" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A211"/>
       <c r="B211"/>
       <c r="C211"/>
@@ -8161,7 +8157,7 @@
       <c r="AC211"/>
       <c r="AD211"/>
     </row>
-    <row r="212" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A212"/>
       <c r="B212"/>
       <c r="C212"/>
@@ -8193,7 +8189,7 @@
       <c r="AC212"/>
       <c r="AD212"/>
     </row>
-    <row r="213" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A213"/>
       <c r="B213"/>
       <c r="C213"/>
@@ -8225,7 +8221,7 @@
       <c r="AC213"/>
       <c r="AD213"/>
     </row>
-    <row r="214" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A214"/>
       <c r="B214"/>
       <c r="C214"/>
@@ -8257,7 +8253,7 @@
       <c r="AC214"/>
       <c r="AD214"/>
     </row>
-    <row r="215" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A215"/>
       <c r="B215"/>
       <c r="C215"/>
@@ -8289,7 +8285,7 @@
       <c r="AC215"/>
       <c r="AD215"/>
     </row>
-    <row r="216" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A216"/>
       <c r="B216"/>
       <c r="C216"/>
@@ -8321,7 +8317,7 @@
       <c r="AC216"/>
       <c r="AD216"/>
     </row>
-    <row r="217" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A217"/>
       <c r="B217"/>
       <c r="C217"/>
@@ -8353,7 +8349,7 @@
       <c r="AC217"/>
       <c r="AD217"/>
     </row>
-    <row r="218" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A218"/>
       <c r="B218"/>
       <c r="C218"/>
@@ -8385,7 +8381,7 @@
       <c r="AC218"/>
       <c r="AD218"/>
     </row>
-    <row r="219" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A219"/>
       <c r="B219"/>
       <c r="C219"/>
@@ -8417,7 +8413,7 @@
       <c r="AC219"/>
       <c r="AD219"/>
     </row>
-    <row r="220" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A220"/>
       <c r="B220"/>
       <c r="C220"/>
@@ -8449,7 +8445,7 @@
       <c r="AC220"/>
       <c r="AD220"/>
     </row>
-    <row r="221" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A221"/>
       <c r="B221"/>
       <c r="C221"/>
@@ -8481,7 +8477,7 @@
       <c r="AC221"/>
       <c r="AD221"/>
     </row>
-    <row r="222" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A222"/>
       <c r="B222"/>
       <c r="C222"/>
@@ -8513,7 +8509,7 @@
       <c r="AC222"/>
       <c r="AD222"/>
     </row>
-    <row r="223" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A223"/>
       <c r="B223"/>
       <c r="C223"/>
@@ -8545,7 +8541,7 @@
       <c r="AC223"/>
       <c r="AD223"/>
     </row>
-    <row r="224" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A224"/>
       <c r="B224"/>
       <c r="C224"/>
@@ -8577,7 +8573,7 @@
       <c r="AC224"/>
       <c r="AD224"/>
     </row>
-    <row r="225" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A225"/>
       <c r="B225"/>
       <c r="C225"/>
@@ -8609,7 +8605,7 @@
       <c r="AC225"/>
       <c r="AD225"/>
     </row>
-    <row r="226" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A226"/>
       <c r="B226"/>
       <c r="C226"/>
@@ -8641,7 +8637,7 @@
       <c r="AC226"/>
       <c r="AD226"/>
     </row>
-    <row r="227" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A227"/>
       <c r="B227"/>
       <c r="C227"/>
@@ -8673,7 +8669,7 @@
       <c r="AC227"/>
       <c r="AD227"/>
     </row>
-    <row r="228" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A228"/>
       <c r="B228"/>
       <c r="C228"/>
@@ -8705,7 +8701,7 @@
       <c r="AC228"/>
       <c r="AD228"/>
     </row>
-    <row r="229" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A229"/>
       <c r="B229"/>
       <c r="C229"/>
@@ -8737,7 +8733,7 @@
       <c r="AC229"/>
       <c r="AD229"/>
     </row>
-    <row r="230" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A230"/>
       <c r="B230"/>
       <c r="C230"/>
@@ -8769,7 +8765,7 @@
       <c r="AC230"/>
       <c r="AD230"/>
     </row>
-    <row r="231" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A231"/>
       <c r="B231"/>
       <c r="C231"/>
@@ -8801,7 +8797,7 @@
       <c r="AC231"/>
       <c r="AD231"/>
     </row>
-    <row r="232" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A232"/>
       <c r="B232"/>
       <c r="C232"/>
@@ -8833,7 +8829,7 @@
       <c r="AC232"/>
       <c r="AD232"/>
     </row>
-    <row r="233" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A233"/>
       <c r="B233"/>
       <c r="C233"/>
@@ -8865,7 +8861,7 @@
       <c r="AC233"/>
       <c r="AD233"/>
     </row>
-    <row r="234" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A234"/>
       <c r="B234"/>
       <c r="C234"/>
@@ -8897,7 +8893,7 @@
       <c r="AC234"/>
       <c r="AD234"/>
     </row>
-    <row r="235" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A235"/>
       <c r="B235"/>
       <c r="C235"/>
@@ -8929,7 +8925,7 @@
       <c r="AC235"/>
       <c r="AD235"/>
     </row>
-    <row r="236" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A236"/>
       <c r="B236"/>
       <c r="C236"/>
@@ -8961,7 +8957,7 @@
       <c r="AC236"/>
       <c r="AD236"/>
     </row>
-    <row r="237" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:30" ht="13" x14ac:dyDescent="0.2">
       <c r="A237"/>
       <c r="B237"/>
       <c r="C237"/>
@@ -8995,6 +8991,32 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A5:A19"/>
+    <mergeCell ref="B5:R5"/>
+    <mergeCell ref="B6:R6"/>
+    <mergeCell ref="B17:R17"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B15:R15"/>
+    <mergeCell ref="B16:R16"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="A32:R32"/>
     <mergeCell ref="A33:R33"/>
     <mergeCell ref="B28:R28"/>
@@ -9009,32 +9031,6 @@
     <mergeCell ref="B25:R25"/>
     <mergeCell ref="B26:R26"/>
     <mergeCell ref="B27:R27"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A5:A19"/>
-    <mergeCell ref="B5:R5"/>
-    <mergeCell ref="B6:R6"/>
-    <mergeCell ref="B17:R17"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="B15:R15"/>
-    <mergeCell ref="B16:R16"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:Y1"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <dataValidations count="1">
